--- a/UserInput.xlsx
+++ b/UserInput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\shopnsave-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Google Drev\TechLabs Digital Shapers\GitHub\shopnsave-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="5430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>store_zip</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>percentDiscount</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Rødager Alle 20</t>
   </si>
 </sst>
 </file>
@@ -359,18 +368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -378,15 +388,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -394,12 +404,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
